--- a/doc/scim_기능리스트.xlsx
+++ b/doc/scim_기능리스트.xlsx
@@ -4,15 +4,76 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="20475" windowHeight="13230"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="20475" windowHeight="13230" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="기능 리스트" sheetId="3" r:id="rId1"/>
+    <sheet name="개발기능 정의" sheetId="2" r:id="rId2"/>
+    <sheet name="요구사항 정의" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김용성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_19_02_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource Repository 인터페이스 분리 (getter/setter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이전트 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄러 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 패스워드 암호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 타이틀 바 - 사용자 정보 표시 및 로그아웃 버튼 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 변경 이력 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,9 +117,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -389,12 +456,126 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>43524</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
